--- a/file/addpaper.xlsx
+++ b/file/addpaper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xian9\Desktop\VScode\小專\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emma9\OneDrive\桌面\小專PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5DB30-1B83-4D23-87F2-CD11756A58C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB218DB-244E-4604-BB9F-E59387739334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F13884F-7EBC-4DD5-9351-682D328C6BE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EEFBE71-28AB-4A2C-B81D-23A72A7F72A5}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,37 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>題目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>選項A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>選項B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>選項C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>選項D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解答</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>試題解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試題科目(1=國文,2=英文,3=數學,4=自然,5=社會)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試題年分(只要數字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試題內容(含選項)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試題圖片(網路圖片連結)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試題正解(A,B,C,D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試題題號(1,2,3...)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,64 +86,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -154,20 +109,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -198,39 +144,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -282,7 +228,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -393,13 +339,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -408,6 +347,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -472,68 +418,90 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953C9820-0139-4718-846F-12B8739F05C0}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B05A9F-7C49-4D6B-BC78-C85A168EE63F}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
-    <col min="4" max="8" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="51.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="H2" s="2">
-        <v>123456</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/addpaper.xlsx
+++ b/file/addpaper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emma9\OneDrive\桌面\小專PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6083699ebdedc2bb/Desktop/infront/front/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB218DB-244E-4604-BB9F-E59387739334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{ECB218DB-244E-4604-BB9F-E59387739334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECEDB350-89C4-4243-8699-B634D20196A1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EEFBE71-28AB-4A2C-B81D-23A72A7F72A5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{7EEFBE71-28AB-4A2C-B81D-23A72A7F72A5}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>試題解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,15 +54,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>試題圖片(網路圖片連結)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>試題正解(A,B,C,D)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>試題題號(1,2,3...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,30 +458,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B05A9F-7C49-4D6B-BC78-C85A168EE63F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="51.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -482,23 +489,31 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D4"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
